--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\QAMID62-diplom-Shvets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E882301-5EC7-4404-B336-79A88B2CCDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>тест 1</t>
+  </si>
+  <si>
+    <t>тест 2</t>
+  </si>
+  <si>
+    <t>тест 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +78,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +360,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,72 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\QAMID62-diplom-Shvets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E882301-5EC7-4404-B336-79A88B2CCDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFA637-8C26-4F1A-8552-DBF4C2AA98BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>тест 1</t>
-  </si>
-  <si>
-    <t>тест 2</t>
-  </si>
-  <si>
-    <t>тест 3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+  <si>
+    <t>Группа проверок/модуль</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Пройдено</t>
+  </si>
+  <si>
+    <t>1. Установка, запуск, авторизация, удаление</t>
+  </si>
+  <si>
+    <t>1. Корректность сборки и установки приложения из Android Studio, появление необходимых иконок в разделе Приложения.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>2. Корректный запуск (без зависаний и крэшей) приложения, отображение заставки</t>
+  </si>
+  <si>
+    <t>3. Аутентификация/Авторизация пользователя</t>
+  </si>
+  <si>
+    <t>4. Корректное удаление приложения с устройства Android и Apple (без остаточных артефактов - иконок, папок, файлов и пр.)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>2. Функционал. Главная страница</t>
+  </si>
+  <si>
+    <t>1. Раскрытие и работа основного меню в левом верхнем углу, переход на соответствующие экраны.</t>
+  </si>
+  <si>
+    <t>2. Отображение и раскрытие разделов в центре главной страницы</t>
+  </si>
+  <si>
+    <t>3. Работа кнопки и экрана цитат и "крылатых" фраз.</t>
+  </si>
+  <si>
+    <t>4. Работа кнопки 'Выйти'.</t>
+  </si>
+  <si>
+    <t>3. Функционал. Страница новостей</t>
+  </si>
+  <si>
+    <t>1. Сортировка новостей</t>
+  </si>
+  <si>
+    <t>2. Фильтрация новостей</t>
+  </si>
+  <si>
+    <t>3. Обновление списка новостей при публикации</t>
+  </si>
+  <si>
+    <t>4. Открытие панели управления новостями по кнопке 'Панель управления'</t>
+  </si>
+  <si>
+    <t>5. Раскрытие новостей по тапу на заголовке.</t>
+  </si>
+  <si>
+    <t>4. Функционал. Панель управления новостями</t>
+  </si>
+  <si>
+    <t>3. Создание новости с различными параметрами активности, времени публикации, категорией</t>
+  </si>
+  <si>
+    <t>4. Раскрытие новости по тапу на карточке</t>
+  </si>
+  <si>
+    <t>5. Редактирование новости</t>
+  </si>
+  <si>
+    <t>6. Удаление новости</t>
+  </si>
+  <si>
+    <t>5. Функционал. Страница 'О приложении'</t>
+  </si>
+  <si>
+    <t>1. Корректные внешние ссылки</t>
+  </si>
+  <si>
+    <t>6. Интерфейс. Локализация и системный масштаб</t>
+  </si>
+  <si>
+    <t>1. Локализация интерфейса в зависимости от системного языка устройства</t>
+  </si>
+  <si>
+    <t>2. Внешний вид интерфейса в зависимости от системного масштаба шрифтов</t>
+  </si>
+  <si>
+    <t>7. Сеть</t>
+  </si>
+  <si>
+    <t>1. Использование основных функций приложения при разном типе/уровне сети (отсутствует, WiFi/LTE, слабый)</t>
+  </si>
+  <si>
+    <t>2. Взаимодействие с пользователем при проблемах с сетью (уведомления, предупреждения).</t>
+  </si>
+  <si>
+    <t>8. Прерывания</t>
+  </si>
+  <si>
+    <t>1. При возникновении прерывания - сворачивание, SMS/MMS, Push, вх.звонок, прочие уведомления, после возвращения фокуса на приложение его состояние не должно меняться</t>
+  </si>
+  <si>
+    <t>2. При внезапном выключении устройства из-за разрядки аккумулятора, изъятии аккумулятора не должно происходить сбоя при последующем использовании приложения</t>
+  </si>
+  <si>
+    <t>3. При отключении/подключении провода питания не должно быть никакой реакции и сбоев в работе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -74,13 +204,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -99,116 +332,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,47 +524,397 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="120.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>222</v>
-      </c>
-      <c r="C2">
-        <v>333</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\QAMID62-diplom-Shvets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFA637-8C26-4F1A-8552-DBF4C2AA98BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A703101-1E74-452B-A111-B001475EEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,8 +304,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -543,10 +543,10 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="120.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -587,7 +587,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -599,7 +599,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -625,7 +625,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -637,7 +637,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -649,7 +649,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -675,7 +675,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -687,7 +687,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -699,7 +699,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="6" t="s">
         <v>39</v>
       </c>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\QAMID62-diplom-Shvets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A703101-1E74-452B-A111-B001475EEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12FBF0D-AF91-40ED-BD0A-46B7BD91AFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1350" windowWidth="23190" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Приоритет</t>
   </si>
   <si>
-    <t>Пройдено</t>
-  </si>
-  <si>
     <t>1. Установка, запуск, авторизация, удаление</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>нет</t>
   </si>
   <si>
     <t>2. Корректный запуск (без зависаний и крэшей) приложения, отображение заставки</t>
@@ -157,11 +151,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -532,10 +530,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -543,10 +541,9 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="120.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,348 +553,264 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
